--- a/女神节.xlsx
+++ b/女神节.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-21640" yWindow="16840" windowWidth="24000" windowHeight="19680" activeTab="5"/>
+    <workbookView xWindow="-21700" yWindow="16460" windowWidth="24000" windowHeight="19680" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="中奖号码" sheetId="1" r:id="rId1"/>
@@ -1304,7 +1304,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
